--- a/test/GammaTrack/mytrack/design.xlsx
+++ b/test/GammaTrack/mytrack/design.xlsx
@@ -1,43 +1,402 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView windowWidth="22368" windowHeight="9492"/>
   </bookViews>
   <sheets>
-    <sheet name="RootTrack" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="RootTrack" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+  <si>
+    <t>孔深，m</t>
+  </si>
+  <si>
+    <t>设计倾角，°</t>
+  </si>
+  <si>
+    <t>设计方位，°</t>
+  </si>
+  <si>
+    <t>顶板相对标高，m</t>
+  </si>
+  <si>
+    <t>底板相对标高，m</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
-    <font>
-      <name val="Calibri"/>
-      <family val="2"/>
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill/>
+  <fills count="33">
+    <fill>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -46,26 +405,332 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -348,52 +1013,633 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>孔深，m</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>设计倾角，°</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>设计方位，°</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>顶板相对标高，m</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>底板相对标高，m</t>
-        </is>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2">
+        <v>10</v>
+      </c>
+      <c r="C2" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>6</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.19</v>
+      </c>
+      <c r="C3" s="2">
+        <v>49.58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4">
+        <v>12</v>
+      </c>
+      <c r="B4" s="2">
+        <v>9.29</v>
+      </c>
+      <c r="C4" s="2">
+        <v>48.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.45</v>
+      </c>
+      <c r="C5" s="2">
+        <v>43.86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>24</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.09</v>
+      </c>
+      <c r="C6" s="2">
+        <v>43.43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>30</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.04</v>
+      </c>
+      <c r="C7" s="2">
+        <v>32.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>36</v>
+      </c>
+      <c r="B8" s="2">
+        <v>7.91</v>
+      </c>
+      <c r="C8" s="2">
+        <v>32.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>42</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7.31</v>
+      </c>
+      <c r="C9" s="2">
+        <v>40.61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10">
+        <v>48</v>
+      </c>
+      <c r="B10" s="2">
+        <v>7.01</v>
+      </c>
+      <c r="C10" s="2">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>54</v>
+      </c>
+      <c r="B11" s="2">
+        <v>6.3</v>
+      </c>
+      <c r="C11" s="2">
+        <v>40.98</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>60</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>42.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13">
+        <v>66</v>
+      </c>
+      <c r="B13" s="2">
+        <v>6.91</v>
+      </c>
+      <c r="C13" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>72</v>
+      </c>
+      <c r="B14" s="2">
+        <v>6.78</v>
+      </c>
+      <c r="C14" s="2">
+        <v>42.53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>78</v>
+      </c>
+      <c r="B15" s="2">
+        <v>5.66</v>
+      </c>
+      <c r="C15" s="2">
+        <v>39.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>84</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="C16" s="2">
+        <v>35.65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>90</v>
+      </c>
+      <c r="B17" s="2">
+        <v>5.52</v>
+      </c>
+      <c r="C17" s="2">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>96</v>
+      </c>
+      <c r="B18" s="2">
+        <v>5.21</v>
+      </c>
+      <c r="C18" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>102</v>
+      </c>
+      <c r="B19" s="2">
+        <v>5.23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>26.21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20">
+        <v>108</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.24</v>
+      </c>
+      <c r="C20" s="2">
+        <v>26.05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>114</v>
+      </c>
+      <c r="B21" s="2">
+        <v>5.07</v>
+      </c>
+      <c r="C21" s="2">
+        <v>28.44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>120</v>
+      </c>
+      <c r="B22" s="2">
+        <v>5.08</v>
+      </c>
+      <c r="C22" s="2">
+        <v>28.46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>126</v>
+      </c>
+      <c r="B23" s="2">
+        <v>5.02</v>
+      </c>
+      <c r="C23" s="2">
+        <v>28.42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>132</v>
+      </c>
+      <c r="B24" s="2">
+        <v>5.02</v>
+      </c>
+      <c r="C24" s="2">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
+        <v>138</v>
+      </c>
+      <c r="B25" s="2">
+        <v>4.52</v>
+      </c>
+      <c r="C25" s="2">
+        <v>31.97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26">
+        <v>144</v>
+      </c>
+      <c r="B26" s="2">
+        <v>4.8</v>
+      </c>
+      <c r="C26" s="2">
+        <v>34.61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27">
+        <v>150</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="C27" s="2">
+        <v>33.41</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
+        <v>156</v>
+      </c>
+      <c r="B28" s="2">
+        <v>1.69</v>
+      </c>
+      <c r="C28" s="2">
+        <v>27.73</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29">
+        <v>162</v>
+      </c>
+      <c r="B29" s="2">
+        <v>1.77</v>
+      </c>
+      <c r="C29" s="2">
+        <v>27.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30">
+        <v>168</v>
+      </c>
+      <c r="B30" s="2">
+        <v>1.68</v>
+      </c>
+      <c r="C30" s="2">
+        <v>17.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>174</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1.74</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13.53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
+        <v>180</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1.76</v>
+      </c>
+      <c r="C32" s="2">
+        <v>12.09</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
+        <v>186</v>
+      </c>
+      <c r="B33" s="2">
+        <v>-0.32</v>
+      </c>
+      <c r="C33" s="2">
+        <v>12.79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34">
+        <v>192</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C34" s="2">
+        <v>12.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
+        <v>198</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C35" s="2">
+        <v>12.12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
+        <v>204</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C36" s="2">
+        <v>12.13</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37">
+        <v>210</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C37" s="2">
+        <v>12.11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
+        <v>216</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.74</v>
+      </c>
+      <c r="C38" s="2">
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39">
+        <v>222</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C39" s="2">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40">
+        <v>228</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C40" s="2">
+        <v>10.35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41">
+        <v>234</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C41" s="2">
+        <v>10.39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>240</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C42" s="2">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
+        <v>246</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C43" s="2">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>252</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C44" s="2">
+        <v>10.47</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
+        <v>258</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C45" s="2">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
+        <v>264</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.68</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10.41</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>270</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.62</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10.87</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
+        <v>276</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.63</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>282</v>
+      </c>
+      <c r="B49" s="2">
+        <v>-0.25</v>
+      </c>
+      <c r="C49" s="2">
+        <v>44.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>288</v>
+      </c>
+      <c r="B50" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="C50" s="2">
+        <v>43.89</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
+        <v>294</v>
+      </c>
+      <c r="B51" s="2">
+        <v>-0.13</v>
+      </c>
+      <c r="C51" s="2">
+        <v>49.87</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52">
+        <v>300</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.06</v>
+      </c>
+      <c r="C52" s="2">
+        <v>26.14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53">
+        <v>306</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.1</v>
+      </c>
+      <c r="C53" s="2">
+        <v>321.5</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54">
+        <v>312</v>
+      </c>
+      <c r="B54" s="2">
+        <v>-0.26</v>
+      </c>
+      <c r="C54" s="2">
+        <v>18.3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55">
+        <v>318</v>
+      </c>
+      <c r="B55" s="2">
+        <v>-0.2</v>
+      </c>
+      <c r="C55" s="2">
+        <v>58.16</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>